--- a/medicine/Enfance/Prix_du_livre_jeunesse_des_bibliothèques_de_Montréal/Prix_du_livre_jeunesse_des_bibliothèques_de_Montréal.xlsx
+++ b/medicine/Enfance/Prix_du_livre_jeunesse_des_bibliothèques_de_Montréal/Prix_du_livre_jeunesse_des_bibliothèques_de_Montréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_du_livre_jeunesse_des_biblioth%C3%A8ques_de_Montr%C3%A9al</t>
+          <t>Prix_du_livre_jeunesse_des_bibliothèques_de_Montréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix du livre jeunesse des bibliothèques de Montréal (nommé à l'origine prix de littérature jeunesse du Réseau des bibliothèques publiques de Montréal) est un prix littéraire québécois qui a été créé à l'occasion de la désignation de Montréal comme capitale mondiale du livre d'avril 2005 à avril 2006. La première remise de prix a eu lieu le 20 novembre 2005 dans le cadre du Salon du livre de Montréal[1].
-Il souligne les qualités d'écriture, l'originalité et le rayonnement d'une œuvre de littérature jeunesse[2] dont l'auteur ou la maison d'édition est domicilié à Montréal[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix du livre jeunesse des bibliothèques de Montréal (nommé à l'origine prix de littérature jeunesse du Réseau des bibliothèques publiques de Montréal) est un prix littéraire québécois qui a été créé à l'occasion de la désignation de Montréal comme capitale mondiale du livre d'avril 2005 à avril 2006. La première remise de prix a eu lieu le 20 novembre 2005 dans le cadre du Salon du livre de Montréal.
+Il souligne les qualités d'écriture, l'originalité et le rayonnement d'une œuvre de littérature jeunesse dont l'auteur ou la maison d'édition est domicilié à Montréal.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_du_livre_jeunesse_des_biblioth%C3%A8ques_de_Montr%C3%A9al</t>
+          <t>Prix_du_livre_jeunesse_des_bibliothèques_de_Montréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2005 - Christiane Duchesne
 2006 - Philippe Béha, Pas si bête, Éditions Hurtubise
@@ -528,18 +542,18 @@
 Finalistes : Le Grand Antonio (La Pastèque) d’Élise Gravel, Eux (Leméac) de Patrick Isabelle, Pablo trouve un trésor (Les 400 coups) d’Andrée Poulin et Isabelle Malenfant, L'autobus (Comme des géants) de Marianne Dubuc
 2016 - Jacques Goldstyn, L'Arbragan, éd. La Pastèque
 Finalistes : Les garçons courent plus vite (La courte échelle) de Simon Boulerice, FéMFé (Québec Amérique) d’Amélie Dumoulin, Camille (Leméac) de Patrick Isabelle, Ma plus belle victoire (Québec Amérique) de Gilles Tibo et Geneviève Després.
-2017 - Jacques Goldstyn, Azadah, éd. La Pastèque[4]
+2017 - Jacques Goldstyn, Azadah, éd. La Pastèque
 Finalistes : Chroniques post-apocalyptiques d’une enfant sage (Bayard Canada) de Annie Bacon, Louis parmi les spectres (La Pastèque) de Fanny Britt et Isabelle Arsenault, Une cachette pour les bobettes (Druide) d'Andrée Poulin et Boum, Le boulevard (Leméac) de Jean-François Sénéchal.
-2018 - Marianne Dubuc, Le chemin de la montagne, Éditions Comme des géants[5].
+2018 - Marianne Dubuc, Le chemin de la montagne, Éditions Comme des géants.
 Finalistes :  L'abri, de Céline Claire, auteure, et Qin Leng, illustratrice; Pourquoi les filles ont mal au ventre? de Lucile de Pesloϋan, auteure, et de Geneviève Darling, illustratrice; Une histoire de cancer qui finit bien, d'India Desjardins, auteure, et de Marianne Ferrer, illustratrice; et Gilles, de l'auteur Mathieu Lavoie.
-2019 - Lucile de Pesloϋan et Geneviève Darling, J’ai mal et pourtant, ça ne se voit pas…, éd. de L’Isatis[6].
+2019 - Lucile de Pesloϋan et Geneviève Darling, J’ai mal et pourtant, ça ne se voit pas…, éd. de L’Isatis.
 Finalistes : Anatole qui ne séchait jamais (Fonfon) de Stéphanie Boulay et Agathe Bray-Bourret, Bagages : mon histoire, poèmes de jeunes immigrants illustrés par Rogé (De La Bagnole) de Rogé, Jules et Jim: frères d’armes (Bayard Canada) de Jacques Goldstyn, Maman veut partir (Leméac) de Jonathan Bécotte.
-2020 - Myriam Daguzan Bernier et Cécile Gariépy, Tout nu! Le dictionnaire bienveillant de la sexualité, éd. Cardinal[7].
-Finalistes : Chimie 501 (Parc en face) de Josée De Angelis, Les fables extravagantes de Conrad le corbeau (Les 400 coups) de Pierrette Dubé et Audrey Malo, Kid (Québec Amérique) de Amélie Dumoulin et Émilie Leduc, Simone sous les ronces (Fonfon) de Maude Nepveu-Villeneuve et Sandra Dumais[8].
-2021 - Obom, Le petit livre pour les géants, éd. Comme des Géants[9].
-Finalistes : Colle-moi (La courte échelle) de Véronique Grenier, Comme un ouragan (Héritage jeunesse) de Jonathan Bécotte, Le grand méchant loup dans ma maison (Les 400 coups), de Valérie Fontaine et Nathalie Dion, Mon chien-banane (Les 400 coups), de Roxane Brouillard et Giulia Sagramola[9].
-2022 - Orbie, La fin des poux?, éd. Les  400 coups[9].
-Finalistes : À qui appartiennent les nuages? (La Pastèque) de Mario Brassard et Gérard DuBois, Léonore (Leméac) de Linda Amyot, Papier bulle (XYZ), de Simon Boulerice et Ève Patenaude, Truffe (La Pastèque), de Fanny Britt et Isabelle Arsenault[9]
+2020 - Myriam Daguzan Bernier et Cécile Gariépy, Tout nu! Le dictionnaire bienveillant de la sexualité, éd. Cardinal.
+Finalistes : Chimie 501 (Parc en face) de Josée De Angelis, Les fables extravagantes de Conrad le corbeau (Les 400 coups) de Pierrette Dubé et Audrey Malo, Kid (Québec Amérique) de Amélie Dumoulin et Émilie Leduc, Simone sous les ronces (Fonfon) de Maude Nepveu-Villeneuve et Sandra Dumais.
+2021 - Obom, Le petit livre pour les géants, éd. Comme des Géants.
+Finalistes : Colle-moi (La courte échelle) de Véronique Grenier, Comme un ouragan (Héritage jeunesse) de Jonathan Bécotte, Le grand méchant loup dans ma maison (Les 400 coups), de Valérie Fontaine et Nathalie Dion, Mon chien-banane (Les 400 coups), de Roxane Brouillard et Giulia Sagramola.
+2022 - Orbie, La fin des poux?, éd. Les  400 coups.
+Finalistes : À qui appartiennent les nuages? (La Pastèque) de Mario Brassard et Gérard DuBois, Léonore (Leméac) de Linda Amyot, Papier bulle (XYZ), de Simon Boulerice et Ève Patenaude, Truffe (La Pastèque), de Fanny Britt et Isabelle Arsenault
 2023 - François Blais, Le garçon aux pieds à l'envers, Fidès
 Finalistes: Cancer ascendant autruche, de Julie Champagne, (La courte échelle), Jusqu’à ce que ça fasse bang, d’Alexandra Larochelle, (De La Bagnole), La voix de la nature, de Gabrielle Boulianne Tremblay, (Héritage jeunesse), Orbie, dessine-moi un billibouton, de Frédérick Wolfe (texte) et Orbie (ill.), (Fonfon)</t>
         </is>
